--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N2">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P2">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q2">
-        <v>0.1295187388668889</v>
+        <v>0.339092996355</v>
       </c>
       <c r="R2">
-        <v>1.165668649802</v>
+        <v>3.051836967194999</v>
       </c>
       <c r="S2">
-        <v>0.001118235310086254</v>
+        <v>0.002555019322506065</v>
       </c>
       <c r="T2">
-        <v>0.001118235310086254</v>
+        <v>0.002555019322506065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N3">
         <v>17.384667</v>
       </c>
       <c r="O3">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P3">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q3">
-        <v>1.246911377315666</v>
+        <v>1.814837542131</v>
       </c>
       <c r="R3">
-        <v>11.222202395841</v>
+        <v>16.333537879179</v>
       </c>
       <c r="S3">
-        <v>0.01076554900751215</v>
+        <v>0.01367455251862428</v>
       </c>
       <c r="T3">
-        <v>0.01076554900751216</v>
+        <v>0.01367455251862429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N4">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O4">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P4">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q4">
-        <v>0.7983367273678889</v>
+        <v>1.241074405819</v>
       </c>
       <c r="R4">
-        <v>7.185030546310999</v>
+        <v>11.169669652371</v>
       </c>
       <c r="S4">
-        <v>0.006892657585239193</v>
+        <v>0.009351325806256283</v>
       </c>
       <c r="T4">
-        <v>0.006892657585239193</v>
+        <v>0.009351325806256283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N5">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P5">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q5">
-        <v>0.07904371755177778</v>
+        <v>0.198244916825</v>
       </c>
       <c r="R5">
-        <v>0.711393457966</v>
+        <v>1.784204251425</v>
       </c>
       <c r="S5">
-        <v>0.0006824454652675667</v>
+        <v>0.001493748318370463</v>
       </c>
       <c r="T5">
-        <v>0.0006824454652675667</v>
+        <v>0.001493748318370463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N6">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O6">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P6">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q6">
-        <v>4.86185468167289</v>
+        <v>8.745527702759999</v>
       </c>
       <c r="R6">
-        <v>43.75669213505601</v>
+        <v>78.70974932483999</v>
       </c>
       <c r="S6">
-        <v>0.04197614665737504</v>
+        <v>0.06589635441090229</v>
       </c>
       <c r="T6">
-        <v>0.04197614665737504</v>
+        <v>0.0658963544109023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N7">
         <v>17.384667</v>
       </c>
       <c r="O7">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P7">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q7">
-        <v>46.80636925953866</v>
+        <v>46.80636925953867</v>
       </c>
       <c r="R7">
-        <v>421.2573233358479</v>
+        <v>421.257323335848</v>
       </c>
       <c r="S7">
-        <v>0.4041155380361151</v>
+        <v>0.3526795868979669</v>
       </c>
       <c r="T7">
-        <v>0.4041155380361152</v>
+        <v>0.352679586897967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N8">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O8">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P8">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q8">
-        <v>29.96784241000089</v>
+        <v>32.00847765641689</v>
       </c>
       <c r="R8">
-        <v>269.710581690008</v>
+        <v>288.076298907752</v>
       </c>
       <c r="S8">
-        <v>0.2587355300332557</v>
+        <v>0.2411794987665569</v>
       </c>
       <c r="T8">
-        <v>0.2587355300332557</v>
+        <v>0.2411794987665569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N9">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O9">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P9">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q9">
-        <v>2.967131023649778</v>
+        <v>5.112923093844445</v>
       </c>
       <c r="R9">
-        <v>26.704179212848</v>
+        <v>46.0163078446</v>
       </c>
       <c r="S9">
-        <v>0.02561753387444215</v>
+        <v>0.03852517580629595</v>
       </c>
       <c r="T9">
-        <v>0.02561753387444215</v>
+        <v>0.03852517580629596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N10">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O10">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P10">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q10">
-        <v>1.352141500628889</v>
+        <v>3.137519631855</v>
       </c>
       <c r="R10">
-        <v>12.16927350566</v>
+        <v>28.237676686695</v>
       </c>
       <c r="S10">
-        <v>0.01167408193952682</v>
+        <v>0.02364078105505654</v>
       </c>
       <c r="T10">
-        <v>0.01167408193952682</v>
+        <v>0.02364078105505654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N11">
         <v>17.384667</v>
       </c>
       <c r="O11">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P11">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q11">
-        <v>13.01742617033666</v>
+        <v>16.79211448856433</v>
       </c>
       <c r="R11">
-        <v>117.15683553303</v>
+        <v>151.129030397079</v>
       </c>
       <c r="S11">
-        <v>0.1123894945045104</v>
+        <v>0.1265262846629221</v>
       </c>
       <c r="T11">
-        <v>0.1123894945045105</v>
+        <v>0.1265262846629221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N12">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O12">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P12">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q12">
-        <v>8.334425041458889</v>
+        <v>11.48326669883011</v>
       </c>
       <c r="R12">
-        <v>75.00982537313</v>
+        <v>103.349400289471</v>
       </c>
       <c r="S12">
-        <v>0.07195752871099806</v>
+        <v>0.08652484308547929</v>
       </c>
       <c r="T12">
-        <v>0.07195752871099806</v>
+        <v>0.08652484308547928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N13">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O13">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P13">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q13">
-        <v>0.8251955801977777</v>
+        <v>1.834297154880556</v>
       </c>
       <c r="R13">
-        <v>7.42676022178</v>
+        <v>16.508674393925</v>
       </c>
       <c r="S13">
-        <v>0.007124550806911615</v>
+        <v>0.01382117803763544</v>
       </c>
       <c r="T13">
-        <v>0.007124550806911615</v>
+        <v>0.01382117803763544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6019246666666668</v>
+        <v>1.082745</v>
       </c>
       <c r="N14">
-        <v>1.805774</v>
+        <v>3.248235</v>
       </c>
       <c r="O14">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="P14">
-        <v>0.05746655956902962</v>
+        <v>0.09436944533780973</v>
       </c>
       <c r="Q14">
-        <v>0.3125048407413334</v>
+        <v>0.3022338301499999</v>
       </c>
       <c r="R14">
-        <v>2.812543566672</v>
+        <v>2.72010447135</v>
       </c>
       <c r="S14">
-        <v>0.002698095662041511</v>
+        <v>0.002277290549344841</v>
       </c>
       <c r="T14">
-        <v>0.002698095662041511</v>
+        <v>0.002277290549344841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.794888999999999</v>
+        <v>5.794889</v>
       </c>
       <c r="N15">
         <v>17.384667</v>
       </c>
       <c r="O15">
-        <v>0.5532458667270893</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="P15">
-        <v>0.5532458667270894</v>
+        <v>0.5050685625185755</v>
       </c>
       <c r="Q15">
-        <v>3.008567291463999</v>
+        <v>1.617565999163333</v>
       </c>
       <c r="R15">
-        <v>27.07710562317599</v>
+        <v>14.55809399247</v>
       </c>
       <c r="S15">
-        <v>0.02597528517895163</v>
+        <v>0.01218813843906218</v>
       </c>
       <c r="T15">
-        <v>0.02597528517895163</v>
+        <v>0.01218813843906218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.710185666666666</v>
+        <v>3.962827666666667</v>
       </c>
       <c r="N16">
-        <v>11.130557</v>
+        <v>11.888483</v>
       </c>
       <c r="O16">
-        <v>0.3542164284550445</v>
+        <v>0.345390511036911</v>
       </c>
       <c r="P16">
-        <v>0.3542164284550445</v>
+        <v>0.3453905110369109</v>
       </c>
       <c r="Q16">
-        <v>1.926239353677333</v>
+        <v>1.106170505447778</v>
       </c>
       <c r="R16">
-        <v>17.336154183096</v>
+        <v>9.95553454903</v>
       </c>
       <c r="S16">
-        <v>0.01663071212555157</v>
+        <v>0.008334843378618482</v>
       </c>
       <c r="T16">
-        <v>0.01663071212555157</v>
+        <v>0.008334843378618484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3673473333333333</v>
+        <v>0.6330083333333333</v>
       </c>
       <c r="N17">
-        <v>1.102042</v>
+        <v>1.899025</v>
       </c>
       <c r="O17">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="P17">
-        <v>0.03507114524883653</v>
+        <v>0.05517148110670383</v>
       </c>
       <c r="Q17">
-        <v>0.1907179191306666</v>
+        <v>0.1766958361388889</v>
       </c>
       <c r="R17">
-        <v>1.716461272176</v>
+        <v>1.59026252525</v>
       </c>
       <c r="S17">
-        <v>0.0016466151022152</v>
+        <v>0.001331378944401986</v>
       </c>
       <c r="T17">
-        <v>0.0016466151022152</v>
+        <v>0.001331378944401987</v>
       </c>
     </row>
   </sheetData>
